--- a/Files/MusicFlux.xlsx
+++ b/Files/MusicFlux.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17060" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TempoSchedule" sheetId="5" r:id="rId1"/>
-    <sheet name="MoodTempo" sheetId="2" r:id="rId2"/>
-    <sheet name="MoodDanceability(0.4-0.6)" sheetId="3" r:id="rId3"/>
-    <sheet name="MoodDanceability(0.7-0.9)" sheetId="4" r:id="rId4"/>
-    <sheet name="DanceabilityOnly" sheetId="1" r:id="rId5"/>
+    <sheet name="EnergySchedule" sheetId="6" r:id="rId1"/>
+    <sheet name="TempoSchedule" sheetId="5" r:id="rId2"/>
+    <sheet name="MoodTempo" sheetId="2" r:id="rId3"/>
+    <sheet name="MoodDanceability(0.4-0.6)" sheetId="3" r:id="rId4"/>
+    <sheet name="MoodDanceability(0.7-0.9)" sheetId="4" r:id="rId5"/>
+    <sheet name="DanceabilityOnly" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="DanceabilityOnly" localSheetId="4">DanceabilityOnly!$A$1:$C$22</definedName>
-    <definedName name="TempoDanceability5" localSheetId="2">'MoodDanceability(0.4-0.6)'!$A$1:$E$209</definedName>
-    <definedName name="TempoDanceability8" localSheetId="3">'MoodDanceability(0.7-0.9)'!$A$1:$E$200</definedName>
-    <definedName name="TempoData" localSheetId="1">MoodTempo!$A$2:$D$270</definedName>
+    <definedName name="DanceabilityOnly" localSheetId="5">DanceabilityOnly!$A$1:$C$22</definedName>
+    <definedName name="TempoDanceability5" localSheetId="3">'MoodDanceability(0.4-0.6)'!$A$1:$E$209</definedName>
+    <definedName name="TempoDanceability8" localSheetId="4">'MoodDanceability(0.7-0.9)'!$A$1:$E$200</definedName>
+    <definedName name="TempoData" localSheetId="2">MoodTempo!$A$2:$D$270</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,28 +32,28 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="DanceabilityOnly.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:khal:Desktop:DanceabilityOnly.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:khal:Desktop:DanceabilityOnly.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="2" name="TempoDanceability5.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:khal:Desktop:TempoDanceability5.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:khal:Desktop:TempoDanceability5.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="3" name="TempoDanceability8.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:khal:Desktop:TempoDanceability8.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:khal:Desktop:TempoDanceability8.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="4" name="TempoData.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:khal:Desktop:TempoData.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:khal:Desktop:TempoData.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="24">
   <si>
     <t>Danceability Only</t>
   </si>
@@ -121,47 +122,30 @@
     <t>Tempo / Beats Per Minute Schedule for Weekdays</t>
   </si>
   <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Humorous</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Dreamy</t>
-  </si>
-  <si>
-    <t>Angry</t>
-  </si>
-  <si>
-    <t>Romantic</t>
-  </si>
-  <si>
-    <t>Dancing</t>
-  </si>
-  <si>
-    <t>Christmas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tempo / BPM (including Danceability) Schedule for WEEKENDS </t>
   </si>
   <si>
-    <t>Danceability</t>
+    <t>Danceability should be kept in the lower range (0.4 - 0.6) for Angry due to lack of results in upper range</t>
   </si>
   <si>
-    <t>Danceability should be kept in the lower range (0.4 - 0.6) for Angry due to lack of results in upper range</t>
+    <t>Energy Schedule for Weekdays</t>
+  </si>
+  <si>
+    <t>Energy Schedule for WEEKENDS</t>
+  </si>
+  <si>
+    <t>danceability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +193,11 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -290,16 +279,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,12 +315,10 @@
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,7 +326,6 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,17 +335,52 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="24">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,7 +418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1921,11 +1960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097635960"/>
-        <c:axId val="-2097637384"/>
+        <c:axId val="2082442184"/>
+        <c:axId val="2082447976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097635960"/>
+        <c:axId val="2082442184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -1953,20 +1992,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097637384"/>
+        <c:crossAx val="2082447976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2097637384"/>
+        <c:axId val="2082447976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="101.0"/>
@@ -1996,21 +2034,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097635960"/>
+        <c:crossAx val="2082442184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2070,7 +2106,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3559,11 +3594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102665944"/>
-        <c:axId val="-2103334184"/>
+        <c:axId val="2081694728"/>
+        <c:axId val="2081688936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102665944"/>
+        <c:axId val="2081694728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -3591,20 +3626,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103334184"/>
+        <c:crossAx val="2081688936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103334184"/>
+        <c:axId val="2081688936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="101.0"/>
@@ -3630,21 +3664,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102665944"/>
+        <c:crossAx val="2081694728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3704,7 +3736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5139,11 +5170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103610824"/>
-        <c:axId val="-2101984680"/>
+        <c:axId val="2086116248"/>
+        <c:axId val="2086121784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103610824"/>
+        <c:axId val="2086116248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250.0"/>
@@ -5180,13 +5211,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101984680"/>
+        <c:crossAx val="2086121784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101984680"/>
+        <c:axId val="2086121784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="101.0"/>
@@ -5216,21 +5247,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103610824"/>
+        <c:crossAx val="2086116248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5698,2111 +5727,2195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25">
-      <c r="B1" s="22" t="s">
-        <v>18</v>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="22">
         <v>1.125</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="18">
         <f>((C$15-C$27)/12)*$A4+C$27</f>
-        <v>78.75</v>
-      </c>
-      <c r="D4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D4" s="18">
         <f t="shared" ref="D4:J19" si="0">((D$15-D$27)/12)*$A4+D$27</f>
-        <v>78.333333333333329</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>77.5</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>87.916666666666671</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>97.083333333333329</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="L4" s="4"/>
+        <v>0.44166666666666671</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="22">
         <v>1.1666666666666701</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="18">
         <f t="shared" ref="C5:C14" si="1">((C$15-C$27)/12)*$A5+C$27</f>
-        <v>87.5</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>95.833333333333329</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>104.16666666666667</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="22">
         <v>1.2083333333333299</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="18">
         <f t="shared" si="1"/>
-        <v>96.25</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>92.5</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>103.75</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>111.25</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0.625</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="22">
         <v>0.25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="18">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>103.33333333333334</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>118.33333333333333</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="0"/>
-        <v>93.333333333333343</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="22">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="18">
         <f t="shared" si="1"/>
-        <v>113.75</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>107.5</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>119.58333333333334</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>125.41666666666666</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>106.66666666666667</v>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.60833333333333339</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="18">
         <f t="shared" si="1"/>
-        <v>122.5</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>127.5</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="22">
         <v>0.375</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="18">
         <f t="shared" si="1"/>
-        <v>131.25</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>102.5</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>122.5</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>135.41666666666669</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>139.58333333333331</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="22">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="18">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>136.66666666666669</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>143.33333333333334</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>146.66666666666669</v>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="22">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="18">
         <f t="shared" si="1"/>
-        <v>148.75</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>117.5</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>151.25</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>153.75</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="22">
         <v>0.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="18">
         <f t="shared" si="1"/>
-        <v>157.5</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>153.33333333333334</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>159.16666666666669</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>160.83333333333331</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>173.33333333333334</v>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="22">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="18">
         <f t="shared" si="1"/>
-        <v>166.25</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>161.66666666666669</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>152.5</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>167.08333333333334</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>187.5</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>167.91666666666666</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="0"/>
-        <v>186.66666666666669</v>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.84166666666666656</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="23">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C15" s="7">
-        <v>175</v>
-      </c>
-      <c r="D15" s="7">
-        <v>170</v>
-      </c>
-      <c r="E15" s="7">
-        <v>140</v>
-      </c>
-      <c r="F15" s="7">
-        <v>160</v>
-      </c>
-      <c r="G15" s="7">
-        <v>175</v>
-      </c>
-      <c r="H15" s="7">
-        <v>200</v>
-      </c>
-      <c r="I15" s="7">
-        <v>175</v>
-      </c>
-      <c r="J15" s="7">
-        <v>200</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="22">
         <v>0.625</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="18">
         <f>((C$15-C$27)/12)*$A16+C$27</f>
-        <v>166.25</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>161.66666666666669</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>132.5</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>152.5</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>167.08333333333334</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>187.5</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>167.91666666666666</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="0"/>
-        <v>186.66666666666669</v>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.84166666666666656</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="18">
         <f t="shared" ref="C17:J26" si="2">((C$15-C$27)/12)*$A17+C$27</f>
-        <v>157.5</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>153.33333333333334</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>159.16666666666669</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>160.83333333333331</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>173.33333333333334</v>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="22">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="18">
         <f t="shared" si="2"/>
-        <v>148.75</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>117.5</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>151.25</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>153.75</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="22">
         <v>0.75</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="18">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>136.66666666666669</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>143.33333333333334</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="0"/>
-        <v>146.66666666666669</v>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="22">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="18">
         <f t="shared" si="2"/>
-        <v>131.25</v>
-      </c>
-      <c r="D20" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D20" s="18">
         <f t="shared" si="2"/>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="E20" s="3">
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E20" s="18">
         <f t="shared" si="2"/>
-        <v>102.5</v>
-      </c>
-      <c r="F20" s="3">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="2"/>
-        <v>122.5</v>
-      </c>
-      <c r="G20" s="3">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G20" s="18">
         <f t="shared" si="2"/>
-        <v>135.41666666666669</v>
-      </c>
-      <c r="H20" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H20" s="18">
         <f t="shared" si="2"/>
-        <v>137.5</v>
-      </c>
-      <c r="I20" s="3">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="I20" s="18">
         <f t="shared" si="2"/>
-        <v>139.58333333333331</v>
-      </c>
-      <c r="J20" s="3">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>133.33333333333334</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="22">
         <v>0.83333333333333404</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="18">
         <f t="shared" si="2"/>
-        <v>122.5</v>
-      </c>
-      <c r="D21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="18">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="E21" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="F21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="G21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="18">
         <f t="shared" si="2"/>
-        <v>127.5</v>
-      </c>
-      <c r="H21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="18">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="I21" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I21" s="18">
         <f t="shared" si="2"/>
-        <v>132.5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="22">
         <v>0.875</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="18">
         <f t="shared" si="2"/>
-        <v>113.75</v>
-      </c>
-      <c r="D22" s="3">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D22" s="18">
         <f t="shared" si="2"/>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="E22" s="3">
+        <v>0.60833333333333339</v>
+      </c>
+      <c r="E22" s="18">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="F22" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="2"/>
-        <v>107.5</v>
-      </c>
-      <c r="G22" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G22" s="18">
         <f t="shared" si="2"/>
-        <v>119.58333333333334</v>
-      </c>
-      <c r="H22" s="3">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="H22" s="18">
         <f t="shared" si="2"/>
-        <v>112.5</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="I22" s="18">
         <f t="shared" si="2"/>
-        <v>125.41666666666666</v>
-      </c>
-      <c r="J22" s="3">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>106.66666666666667</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="18">
         <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="D23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D23" s="18">
         <f t="shared" si="2"/>
-        <v>103.33333333333334</v>
-      </c>
-      <c r="E23" s="3">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="F23" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G23" s="18">
         <f t="shared" si="2"/>
-        <v>111.66666666666667</v>
-      </c>
-      <c r="H23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H23" s="18">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I23" s="18">
         <f t="shared" si="2"/>
-        <v>118.33333333333333</v>
-      </c>
-      <c r="J23" s="3">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J23" s="18">
         <f t="shared" si="2"/>
-        <v>93.333333333333343</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="22">
         <v>0.95833333333333404</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="18">
         <f t="shared" si="2"/>
-        <v>96.25</v>
-      </c>
-      <c r="D24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D24" s="18">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E24" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E24" s="18">
         <f t="shared" si="2"/>
-        <v>72.5</v>
-      </c>
-      <c r="F24" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="2"/>
-        <v>92.5</v>
-      </c>
-      <c r="G24" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G24" s="18">
         <f t="shared" si="2"/>
-        <v>103.75</v>
-      </c>
-      <c r="H24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="18">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="I24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="I24" s="18">
         <f t="shared" si="2"/>
-        <v>111.25</v>
-      </c>
-      <c r="J24" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J24" s="18">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="18">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="D25" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D25" s="18">
         <f t="shared" si="2"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="E25" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="F25" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="G25" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G25" s="18">
         <f t="shared" si="2"/>
-        <v>95.833333333333329</v>
-      </c>
-      <c r="H25" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H25" s="18">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="I25" s="3">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="I25" s="18">
         <f t="shared" si="2"/>
-        <v>104.16666666666667</v>
-      </c>
-      <c r="J25" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25" s="18">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="22">
         <v>1.0416666666666701</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="18">
         <f t="shared" si="2"/>
-        <v>78.75</v>
-      </c>
-      <c r="D26" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D26" s="18">
         <f t="shared" si="2"/>
-        <v>78.333333333333329</v>
-      </c>
-      <c r="E26" s="3">
+        <v>0.44166666666666671</v>
+      </c>
+      <c r="E26" s="18">
         <f t="shared" si="2"/>
-        <v>57.5</v>
-      </c>
-      <c r="F26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="2"/>
-        <v>77.5</v>
-      </c>
-      <c r="G26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="18">
         <f t="shared" si="2"/>
-        <v>87.916666666666671</v>
-      </c>
-      <c r="H26" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H26" s="18">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="I26" s="3">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="I26" s="18">
         <f t="shared" si="2"/>
-        <v>97.083333333333329</v>
-      </c>
-      <c r="J26" s="3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J26" s="18">
         <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9">
+      <c r="A27" s="6"/>
+      <c r="B27" s="25">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C27" s="10">
-        <v>70</v>
-      </c>
-      <c r="D27" s="10">
-        <v>70</v>
-      </c>
-      <c r="E27" s="10">
-        <v>50</v>
-      </c>
-      <c r="F27" s="10">
-        <v>70</v>
-      </c>
-      <c r="G27" s="10">
-        <v>80</v>
-      </c>
-      <c r="H27" s="10">
-        <v>50</v>
-      </c>
-      <c r="I27" s="10">
-        <v>90</v>
-      </c>
-      <c r="J27" s="10">
-        <v>40</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="C27" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="25">
-      <c r="B31" s="22" t="s">
-        <v>27</v>
+      <c r="B31" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" thickBot="1"/>
     <row r="33" spans="1:12">
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="15"/>
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C34" s="18">
+        <f>((C$45-C$57)/12)*$A34+C$57</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" ref="D34:K49" si="3">((D$45-D$57)/12)*$A34+D$57</f>
+        <v>0.44166666666666671</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="3"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="3"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C35" s="3">
-        <f>((C$46-C$58)/12)*$A35+C$58</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" ref="D35:K50" si="3">((D$46-D$58)/12)*$A35+D$58</f>
-        <v>66.25</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="3"/>
-        <v>84.166666666666671</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="3"/>
-        <v>79.583333333333329</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>83.75</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>52.5</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="3"/>
-        <v>61.666666666666664</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="3"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" ref="C35:C44" si="4">((C$45-C$57)/12)*$A35+C$57</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:C45" si="4">((C$46-C$58)/12)*$A36+C$58</f>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="3"/>
-        <v>88.333333333333329</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="3"/>
-        <v>84.166666666666671</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="3"/>
-        <v>68.333333333333329</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K36" s="16">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C36" s="18">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="D36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="G36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="22">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C37" s="18">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="3"/>
-        <v>78.75</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="3"/>
-        <v>92.5</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="3"/>
-        <v>88.75</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="3"/>
-        <v>91.25</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="3"/>
-        <v>67.5</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="22">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C38" s="18">
         <f t="shared" si="4"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="3"/>
-        <v>96.666666666666671</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="3"/>
-        <v>81.666666666666671</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="3"/>
-        <v>93.333333333333343</v>
-      </c>
-      <c r="K38" s="16">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.60833333333333339</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.70833333333333404</v>
-      </c>
-      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C39" s="18">
         <f t="shared" si="4"/>
-        <v>93.333333333333343</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="3"/>
-        <v>91.25</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="3"/>
-        <v>100.83333333333334</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="3"/>
-        <v>97.916666666666657</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="3"/>
-        <v>98.75</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="3"/>
-        <v>88.333333333333343</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="3"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="K39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="18">
         <f t="shared" si="3"/>
         <v>0.65</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.750000000000001</v>
-      </c>
-      <c r="C40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C40" s="18">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="3"/>
-        <v>97.5</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="3"/>
-        <v>102.5</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="3"/>
-        <v>102.5</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="K40" s="16">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="B41" s="22">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C41" s="18">
         <f t="shared" si="4"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="3"/>
-        <v>103.75</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="3"/>
-        <v>109.16666666666667</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="3"/>
-        <v>107.08333333333333</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="3"/>
-        <v>106.25</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="3"/>
-        <v>97.5</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="3"/>
-        <v>101.66666666666667</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="3"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="K41" s="16">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.83333333333333404</v>
-      </c>
-      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="B42" s="22">
+        <v>0.875000000000001</v>
+      </c>
+      <c r="C42" s="18">
         <f t="shared" si="4"/>
-        <v>113.33333333333334</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="3"/>
-        <v>113.33333333333334</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="3"/>
-        <v>111.66666666666666</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="3"/>
-        <v>108.33333333333334</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="3"/>
-        <v>146.66666666666669</v>
-      </c>
-      <c r="K42" s="16">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.875</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.875000000000001</v>
-      </c>
-      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="B43" s="22">
+        <v>0.91666666666666796</v>
+      </c>
+      <c r="C43" s="18">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="3"/>
-        <v>116.25</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="3"/>
-        <v>116.25</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="3"/>
-        <v>113.75</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="3"/>
-        <v>112.5</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K43" s="16">
-        <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.91666666666666796</v>
-      </c>
-      <c r="C44" s="3">
+        <v>11</v>
+      </c>
+      <c r="B44" s="22">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C44" s="18">
         <f t="shared" si="4"/>
-        <v>126.66666666666667</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="3"/>
-        <v>122.5</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="3"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="3"/>
-        <v>120.83333333333333</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="3"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="3"/>
-        <v>173.33333333333334</v>
-      </c>
-      <c r="K44" s="16">
-        <f t="shared" si="3"/>
-        <v>0.89999999999999991</v>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.84166666666666656</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="20">
+        <v>1</v>
+      </c>
+      <c r="H45" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19">
+        <v>1</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>11</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.95833333333333404</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="4"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="3"/>
-        <v>128.75</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="3"/>
-        <v>125.83333333333334</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="3"/>
-        <v>125.41666666666666</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="3"/>
-        <v>121.25</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="3"/>
-        <v>127.5</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="3"/>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="3"/>
-        <v>186.66666666666669</v>
-      </c>
-      <c r="K45" s="16">
+      <c r="B46" s="22">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="C46" s="18">
+        <f>((C$45-C$57)/12)*$A46+C$57</f>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.84166666666666656</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K46" s="12">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
-        <v>140</v>
-      </c>
-      <c r="D46" s="7">
-        <v>135</v>
-      </c>
-      <c r="E46" s="7">
-        <v>130</v>
-      </c>
-      <c r="F46" s="7">
-        <v>130</v>
-      </c>
-      <c r="G46" s="17">
-        <v>125</v>
-      </c>
-      <c r="H46" s="7">
-        <v>135</v>
-      </c>
-      <c r="I46" s="7">
-        <v>135</v>
-      </c>
-      <c r="J46" s="7">
-        <v>200</v>
-      </c>
-      <c r="K46" s="18">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.0416666666666701</v>
-      </c>
-      <c r="C47" s="3">
-        <f>((C$46-C$58)/12)*$A47+C$58</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="3"/>
-        <v>128.75</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="3"/>
-        <v>125.83333333333334</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="3"/>
-        <v>125.41666666666666</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="3"/>
-        <v>121.25</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
-        <v>127.5</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="3"/>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="3"/>
-        <v>186.66666666666669</v>
-      </c>
-      <c r="K47" s="16">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>10</v>
+      </c>
+      <c r="B47" s="22">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="C47" s="18">
+        <f t="shared" ref="C47:K56" si="5">((C$45-C$57)/12)*$A47+C$57</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K47" s="12">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.0833333333333299</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:K57" si="5">((C$46-C$58)/12)*$A48+C$58</f>
-        <v>126.66666666666667</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="3"/>
-        <v>122.5</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="3"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="3"/>
-        <v>120.83333333333333</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="3"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="J48" s="3">
-        <f t="shared" si="3"/>
-        <v>173.33333333333334</v>
-      </c>
-      <c r="K48" s="16">
+        <v>9</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1.125</v>
+      </c>
+      <c r="C48" s="18">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="D48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.72499999999999987</v>
+      </c>
+      <c r="I48" s="18">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
+      </c>
+      <c r="J48" s="18">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="C49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="22">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="C49" s="18">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="3"/>
-        <v>116.25</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="3"/>
-        <v>116.25</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="3"/>
-        <v>113.75</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="3"/>
-        <v>112.5</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K49" s="16">
-        <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="D49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1.1666666666666701</v>
-      </c>
-      <c r="C50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="22">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="C50" s="18">
         <f t="shared" si="5"/>
-        <v>113.33333333333334</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="3"/>
-        <v>113.33333333333334</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="3"/>
-        <v>111.66666666666666</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="3"/>
-        <v>108.33333333333334</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="3"/>
-        <v>146.66666666666669</v>
-      </c>
-      <c r="K50" s="16">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.69166666666666665</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="G50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="I50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="5"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1.2083333333333299</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="5"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="5"/>
-        <v>103.75</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="5"/>
-        <v>109.16666666666667</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="5"/>
-        <v>107.08333333333333</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="5"/>
-        <v>106.25</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="5"/>
-        <v>97.5</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="5"/>
-        <v>101.66666666666667</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="5"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="K51" s="16">
+        <v>6</v>
+      </c>
+      <c r="B51" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="C51" s="18">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
+      <c r="D51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="E51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="18">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="22">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="C52" s="18">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="D52" s="3">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D52" s="18">
         <f t="shared" si="5"/>
-        <v>97.5</v>
-      </c>
-      <c r="E52" s="3">
+        <v>0.60833333333333339</v>
+      </c>
+      <c r="E52" s="18">
         <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="F52" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F52" s="18">
         <f t="shared" si="5"/>
-        <v>102.5</v>
-      </c>
-      <c r="G52" s="3">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G52" s="18">
         <f t="shared" si="5"/>
-        <v>102.5</v>
-      </c>
-      <c r="H52" s="3">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="H52" s="18">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="I52" s="3">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="I52" s="18">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="J52" s="3">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J52" s="18">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="K52" s="16">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" s="22">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="C53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J53" s="18">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="22">
+        <v>1.375</v>
+      </c>
+      <c r="C54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="D54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="G54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="I54" s="18">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
-        <v>5</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.2916666666666701</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="J54" s="18">
         <f t="shared" si="5"/>
-        <v>93.333333333333343</v>
-      </c>
-      <c r="D53" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K54" s="12">
         <f t="shared" si="5"/>
-        <v>91.25</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="5"/>
-        <v>100.83333333333334</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="5"/>
-        <v>97.916666666666657</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="5"/>
-        <v>98.75</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="5"/>
-        <v>82.5</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="5"/>
-        <v>88.333333333333343</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="5"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="K53" s="16">
-        <f t="shared" si="5"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="5"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="5"/>
-        <v>96.666666666666671</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="5"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="5"/>
-        <v>81.666666666666671</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="5"/>
-        <v>93.333333333333343</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.375</v>
-      </c>
-      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="22">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="C55" s="18">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="D55" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D55" s="18">
         <f t="shared" si="5"/>
-        <v>78.75</v>
-      </c>
-      <c r="E55" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E55" s="18">
         <f t="shared" si="5"/>
-        <v>92.5</v>
-      </c>
-      <c r="F55" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F55" s="18">
         <f t="shared" si="5"/>
-        <v>88.75</v>
-      </c>
-      <c r="G55" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G55" s="18">
         <f t="shared" si="5"/>
-        <v>91.25</v>
-      </c>
-      <c r="H55" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H55" s="18">
         <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="I55" s="3">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="I55" s="18">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="J55" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J55" s="18">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="K55" s="16">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K55" s="12">
         <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.4166666666666701</v>
-      </c>
-      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1.4583333333333299</v>
+      </c>
+      <c r="C56" s="18">
         <f t="shared" si="5"/>
-        <v>73.333333333333329</v>
-      </c>
-      <c r="D56" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D56" s="18">
         <f t="shared" si="5"/>
-        <v>72.5</v>
-      </c>
-      <c r="E56" s="3">
+        <v>0.44166666666666671</v>
+      </c>
+      <c r="E56" s="18">
         <f t="shared" si="5"/>
-        <v>88.333333333333329</v>
-      </c>
-      <c r="F56" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F56" s="18">
         <f t="shared" si="5"/>
-        <v>84.166666666666671</v>
-      </c>
-      <c r="G56" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G56" s="18">
         <f t="shared" si="5"/>
-        <v>87.5</v>
-      </c>
-      <c r="H56" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H56" s="18">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="I56" s="3">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="I56" s="18">
         <f t="shared" si="5"/>
-        <v>68.333333333333329</v>
-      </c>
-      <c r="J56" s="3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J56" s="18">
         <f t="shared" si="5"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K56" s="16">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1.4583333333333299</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="5"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="5"/>
-        <v>66.25</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="5"/>
-        <v>84.166666666666671</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="5"/>
-        <v>79.583333333333329</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="5"/>
-        <v>83.75</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="5"/>
-        <v>61.666666666666664</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="5"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="K57" s="16">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K56" s="12">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="16" thickBot="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="19">
+    <row r="57" spans="1:12" ht="16" thickBot="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="24">
         <v>1.5</v>
       </c>
-      <c r="C58" s="10">
-        <v>60</v>
-      </c>
-      <c r="D58" s="10">
-        <v>60</v>
-      </c>
-      <c r="E58" s="10">
-        <v>80</v>
-      </c>
-      <c r="F58" s="10">
-        <v>75</v>
-      </c>
-      <c r="G58" s="10">
-        <v>80</v>
-      </c>
-      <c r="H58" s="10">
-        <v>45</v>
-      </c>
-      <c r="I58" s="10">
-        <v>55</v>
-      </c>
-      <c r="J58" s="10">
-        <v>40</v>
-      </c>
-      <c r="K58" s="20">
+      <c r="C57" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="21">
         <v>0.4</v>
       </c>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59" s="21"/>
-      <c r="G59" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E57" s="21">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="J57" s="21">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="16"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" s="22"/>
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="B62" s="22"/>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" s="22"/>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" s="22"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="22"/>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="22"/>
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="22"/>
+      <c r="D67" s="22"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="22"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="22"/>
+      <c r="D69" s="22"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="22"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="23"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="22"/>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="22"/>
+      <c r="D76" s="22"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="22"/>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="22"/>
+      <c r="D78" s="22"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="22"/>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="22"/>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="22"/>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="22"/>
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="22"/>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="24"/>
+      <c r="D84" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7812,6 +7925,2111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25">
+      <c r="B1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1.125</v>
+      </c>
+      <c r="C4" s="2">
+        <f>((C$15-C$27)/12)*$A4+C$27</f>
+        <v>78.75</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:J19" si="0">((D$15-D$27)/12)*$A4+D$27</f>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>87.916666666666671</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>97.083333333333329</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C14" si="1">((C$15-C$27)/12)*$A5+C$27</f>
+        <v>87.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>96.25</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>103.75</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>111.25</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>111.66666666666667</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>113.75</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>111.66666666666667</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>119.58333333333334</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>125.41666666666666</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>106.66666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>122.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>131.25</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>122.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>135.41666666666669</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>139.58333333333331</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>136.66666666666669</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>143.33333333333334</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>146.66666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>148.75</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>117.5</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>151.25</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>162.5</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>153.75</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>157.5</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>159.16666666666669</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>160.83333333333331</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>173.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>166.25</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>161.66666666666669</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>152.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>167.08333333333334</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>187.5</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>167.91666666666666</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>186.66666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="B15" s="23">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C15" s="5">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5">
+        <v>170</v>
+      </c>
+      <c r="E15" s="5">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5">
+        <v>160</v>
+      </c>
+      <c r="G15" s="5">
+        <v>175</v>
+      </c>
+      <c r="H15" s="5">
+        <v>200</v>
+      </c>
+      <c r="I15" s="5">
+        <v>175</v>
+      </c>
+      <c r="J15" s="5">
+        <v>200</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="2">
+        <f>((C$15-C$27)/12)*$A16+C$27</f>
+        <v>166.25</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>161.66666666666669</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>152.5</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>167.08333333333334</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>187.5</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>167.91666666666666</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>186.66666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:J26" si="2">((C$15-C$27)/12)*$A17+C$27</f>
+        <v>157.5</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>159.16666666666669</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>160.83333333333331</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>173.33333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>148.75</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>117.5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>151.25</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>162.5</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>153.75</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>136.66666666666669</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>143.33333333333334</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>146.66666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>131.25</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>102.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>135.41666666666669</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>137.5</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>139.58333333333331</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="2"/>
+        <v>132.5</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>113.75</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>111.66666666666667</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>107.5</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>119.58333333333334</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="2"/>
+        <v>125.41666666666666</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>106.66666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="22">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>103.33333333333334</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>111.66666666666667</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="2"/>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>96.25</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>103.75</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="2"/>
+        <v>111.25</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>95.833333333333329</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="2"/>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="22">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>78.75</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>87.916666666666671</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="2"/>
+        <v>97.083333333333329</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6"/>
+      <c r="B27" s="25">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="C27" s="7">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7">
+        <v>70</v>
+      </c>
+      <c r="E27" s="7">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7">
+        <v>70</v>
+      </c>
+      <c r="G27" s="7">
+        <v>80</v>
+      </c>
+      <c r="H27" s="7">
+        <v>50</v>
+      </c>
+      <c r="I27" s="7">
+        <v>90</v>
+      </c>
+      <c r="J27" s="7">
+        <v>40</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="25">
+      <c r="B31" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1"/>
+    <row r="33" spans="1:12">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C34" s="2">
+        <f>((C$45-C$57)/12)*$A34+C$57</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:K49" si="3">((D$45-D$57)/12)*$A34+D$57</f>
+        <v>66.25</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>84.166666666666671</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="3"/>
+        <v>79.583333333333329</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="3"/>
+        <v>83.75</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="3"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:C44" si="4">((C$45-C$57)/12)*$A35+C$57</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>84.166666666666671</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>78.75</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="3"/>
+        <v>88.75</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
+        <v>91.25</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="22">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="3"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="3"/>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="22">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="4"/>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>91.25</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>100.83333333333334</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
+        <v>97.916666666666657</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>98.75</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>88.333333333333343</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>97.5</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
+        <v>102.5</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>102.5</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="4"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>103.75</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>109.16666666666667</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="3"/>
+        <v>107.08333333333333</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>106.25</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="3"/>
+        <v>97.5</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="3"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" s="22">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="4"/>
+        <v>113.33333333333334</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>113.33333333333334</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="3"/>
+        <v>111.66666666666666</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>108.33333333333334</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
+        <v>146.66666666666669</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" s="22">
+        <v>0.875000000000001</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>116.25</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="3"/>
+        <v>116.25</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>113.75</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" s="22">
+        <v>0.91666666666666796</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="4"/>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="3"/>
+        <v>122.5</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="3"/>
+        <v>120.83333333333333</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>173.33333333333334</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" s="22">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="4"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="3"/>
+        <v>128.75</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>125.83333333333334</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="3"/>
+        <v>125.41666666666666</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
+        <v>121.25</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="3"/>
+        <v>186.66666666666669</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4"/>
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>140</v>
+      </c>
+      <c r="D45" s="5">
+        <v>135</v>
+      </c>
+      <c r="E45" s="5">
+        <v>130</v>
+      </c>
+      <c r="F45" s="5">
+        <v>130</v>
+      </c>
+      <c r="G45" s="13">
+        <v>125</v>
+      </c>
+      <c r="H45" s="5">
+        <v>135</v>
+      </c>
+      <c r="I45" s="5">
+        <v>135</v>
+      </c>
+      <c r="J45" s="5">
+        <v>200</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="C46" s="2">
+        <f>((C$45-C$57)/12)*$A46+C$57</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>128.75</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="3"/>
+        <v>125.83333333333334</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="3"/>
+        <v>125.41666666666666</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>121.25</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>186.66666666666669</v>
+      </c>
+      <c r="K46" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" s="22">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ref="C47:K56" si="5">((C$45-C$57)/12)*$A47+C$57</f>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="3"/>
+        <v>122.5</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="3"/>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="3"/>
+        <v>120.83333333333333</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="3"/>
+        <v>173.33333333333334</v>
+      </c>
+      <c r="K47" s="12">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" s="22">
+        <v>1.125</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="3"/>
+        <v>116.25</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="3"/>
+        <v>117.5</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="3"/>
+        <v>116.25</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>113.75</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="3"/>
+        <v>112.5</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" s="22">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="5"/>
+        <v>113.33333333333334</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="3"/>
+        <v>113.33333333333334</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="3"/>
+        <v>111.66666666666666</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>108.33333333333334</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>146.66666666666669</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="22">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="5"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="5"/>
+        <v>103.75</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="5"/>
+        <v>109.16666666666667</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="5"/>
+        <v>107.08333333333333</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="5"/>
+        <v>106.25</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="5"/>
+        <v>97.5</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="5"/>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="5"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="5"/>
+        <v>97.5</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="5"/>
+        <v>102.5</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="5"/>
+        <v>102.5</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="22">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="5"/>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="5"/>
+        <v>91.25</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>100.83333333333334</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="5"/>
+        <v>97.916666666666657</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="5"/>
+        <v>98.75</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="5"/>
+        <v>82.5</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="5"/>
+        <v>88.333333333333343</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="5"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" s="22">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="5"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="5"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="5"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="5"/>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="5"/>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="K53" s="12">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="22">
+        <v>1.375</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="5"/>
+        <v>78.75</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>92.5</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="5"/>
+        <v>88.75</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="5"/>
+        <v>91.25</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="K54" s="12">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="22">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="5"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="5"/>
+        <v>72.5</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="5"/>
+        <v>84.166666666666671</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="5"/>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="5"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K55" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1.4583333333333299</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="5"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="5"/>
+        <v>66.25</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="5"/>
+        <v>84.166666666666671</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="5"/>
+        <v>79.583333333333329</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="5"/>
+        <v>83.75</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="5"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="5"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16" thickBot="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="7">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7">
+        <v>60</v>
+      </c>
+      <c r="E57" s="7">
+        <v>80</v>
+      </c>
+      <c r="F57" s="7">
+        <v>75</v>
+      </c>
+      <c r="G57" s="7">
+        <v>80</v>
+      </c>
+      <c r="H57" s="7">
+        <v>45</v>
+      </c>
+      <c r="I57" s="7">
+        <v>55</v>
+      </c>
+      <c r="J57" s="7">
+        <v>40</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="16"/>
+      <c r="G58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D266"/>
   <sheetViews>
@@ -11464,7 +13682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D209"/>
   <sheetViews>
@@ -14309,7 +16527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
@@ -17027,11 +19245,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
